--- a/datas/student_excel/student_excel_clean.xlsx
+++ b/datas/student_excel/student_excel_clean.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,13 +450,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -464,10 +461,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -475,32 +472,29 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -508,9 +502,31 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>80</v>
       </c>
     </row>
